--- a/result/result_20201108000000.xlsx
+++ b/result/result_20201108000000.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23427"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB4D4178-CE06-44B6-B88C-E691071419CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23507"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_538DF239F2C5D2A091114F15D00ACDA7F87230E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DEBA5D54-7C7D-4BDB-BFF9-E793397B98D3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Result" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Result!$A$1:$O$20</definedName>
+  </definedNames>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>연번</t>
   </si>
@@ -76,40 +79,139 @@
     <t>정통보신과</t>
   </si>
   <si>
+    <t>OKI C833</t>
+  </si>
+  <si>
+    <t>민여원권과</t>
+  </si>
+  <si>
     <t>OKI C843</t>
   </si>
   <si>
-    <t>http://192.168.100.1/printer/suppliessum.htm</t>
-  </si>
-  <si>
-    <t>민여원권과</t>
+    <t>지경역제과</t>
+  </si>
+  <si>
+    <t>OKI ES5112</t>
+  </si>
+  <si>
+    <t>국관제광과</t>
+  </si>
+  <si>
+    <t>Sindoh D412</t>
+  </si>
+  <si>
+    <t>정상</t>
+  </si>
+  <si>
+    <t>문체화육과</t>
   </si>
   <si>
     <t>Sindoh D422</t>
   </si>
   <si>
-    <t>http://192.168.100.2/wcd/system_consumable.xml</t>
-  </si>
-  <si>
-    <t>정상</t>
-  </si>
-  <si>
-    <t>행안정전국</t>
-  </si>
-  <si>
-    <t>OKI ES5112</t>
-  </si>
-  <si>
-    <t>http://192.168.0.3/printer/suppliessum.htm</t>
-  </si>
-  <si>
     <t>재안난전과</t>
   </si>
   <si>
-    <t>http://192.168.100.4/printer/suppliessum.htm</t>
-  </si>
-  <si>
-    <t>Error: net::ERR_CONNECTION_TIMED_OUT at http://192.168.0.4/printer/suppliessum.htm</t>
+    <t>Sindoh D711</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>감당사당관</t>
+  </si>
+  <si>
+    <t>Sindoh D720</t>
+  </si>
+  <si>
+    <t>세1무과</t>
+  </si>
+  <si>
+    <t>Xerox ApeosPort-V C2275</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>세2무과</t>
+  </si>
+  <si>
+    <t>Xerox ApeosPort-V C3373</t>
+  </si>
+  <si>
+    <t>Replace Soon</t>
+  </si>
+  <si>
+    <t>교협육력과</t>
+  </si>
+  <si>
+    <t>Xerox ApeosPort-V C3376</t>
+  </si>
+  <si>
+    <t>공녹원지과</t>
+  </si>
+  <si>
+    <t>Xerox ApeosPort-V C5580 T2</t>
+  </si>
+  <si>
+    <t>홍담보당관</t>
+  </si>
+  <si>
+    <t>Xerox DocuCentre-II 3005</t>
+  </si>
+  <si>
+    <t>Remaining 25%</t>
+  </si>
+  <si>
+    <t>자행치정과</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xerox DocuCentre-III 3007 </t>
+  </si>
+  <si>
+    <t>Error: net::ERR_CONNECTION_TIMED_OUT at http://98.24.31.208/stsply.htm</t>
+  </si>
+  <si>
+    <t>기예획산과</t>
+  </si>
+  <si>
+    <t>Xerox DocuCentre-IV 2060</t>
+  </si>
+  <si>
+    <t>세행무정과</t>
+  </si>
+  <si>
+    <t>Xerox DocuCentre-IV C2265</t>
+  </si>
+  <si>
+    <t>주관차리과</t>
+  </si>
+  <si>
+    <t>Xerox DocuCentre-V C5585</t>
+  </si>
+  <si>
+    <t>주사거업과</t>
+  </si>
+  <si>
+    <t>Xerox DocuCentre-VI C3371</t>
+  </si>
+  <si>
+    <t>혁도신시기획과</t>
+  </si>
+  <si>
+    <t>Xerox DocuPrint 3055</t>
+  </si>
+  <si>
+    <t>Error: net::ERR_CONNECTION_TIMED_OUT at http://98.24.32.76/ews/status/statsupl.htm</t>
+  </si>
+  <si>
+    <t>의사회무국</t>
+  </si>
+  <si>
+    <t>Xerox DocuPrint C5005d</t>
+  </si>
+  <si>
+    <t>Reorder</t>
   </si>
 </sst>
 </file>
@@ -125,18 +227,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -148,14 +251,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDAB9"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFF6347"/>
+        <bgColor rgb="FFFF6347"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6347"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFDAB9"/>
+        <bgColor rgb="FFFFDAB9"/>
       </patternFill>
     </fill>
   </fills>
@@ -170,22 +273,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -208,44 +309,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -273,31 +374,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -325,23 +409,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,354 +420,967 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.75" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="84" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.1/printer/suppliessum.htm")</f>
+        <v>http://192.168.0.1/printer/suppliessum.htm</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>70</v>
+      </c>
+      <c r="I2" s="2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>33</v>
+      </c>
+      <c r="K2">
+        <v>39</v>
+      </c>
+      <c r="L2">
+        <v>39</v>
+      </c>
+      <c r="M2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.2/printer/suppliessum.htm")</f>
+        <v>http://192.168.0.2/printer/suppliessum.htm</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>70</v>
+      </c>
+      <c r="J3" s="1">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.3/printer/suppliessum.htm")</f>
+        <v>http://192.168.0.3/printer/suppliessum.htm</v>
+      </c>
+      <c r="E4" s="2">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.4/wcd/system_consumable.xml")</f>
+        <v>http://192.168.0.4/wcd/system_consumable.xml</v>
+      </c>
+      <c r="E5" s="2">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2">
+        <v>47</v>
+      </c>
+      <c r="J5">
+        <v>84</v>
+      </c>
+      <c r="K5">
+        <v>74</v>
+      </c>
+      <c r="L5" s="2">
+        <v>17</v>
+      </c>
+      <c r="M5">
+        <v>81</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.5/wcd/system_consumable.xml")</f>
+        <v>http://192.168.0.5/wcd/system_consumable.xml</v>
+      </c>
+      <c r="E6" s="1">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>91</v>
+      </c>
+      <c r="I6">
+        <v>74</v>
+      </c>
+      <c r="J6" s="2">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.6/wcd/system_consumable.xml")</f>
+        <v>http://192.168.0.6/wcd/system_consumable.xml</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>97</v>
+      </c>
+      <c r="H7" s="2">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>61</v>
+      </c>
+      <c r="L7">
+        <v>99</v>
+      </c>
+      <c r="M7">
+        <v>99</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.7/wcd/system_consumable.xml")</f>
+        <v>http://192.168.0.7/wcd/system_consumable.xml</v>
+      </c>
+      <c r="E8">
+        <v>87</v>
+      </c>
+      <c r="G8">
+        <v>57</v>
+      </c>
+      <c r="H8">
+        <v>66</v>
+      </c>
+      <c r="I8">
+        <v>65</v>
+      </c>
+      <c r="J8">
+        <v>56</v>
+      </c>
+      <c r="K8">
+        <v>68</v>
+      </c>
+      <c r="L8">
+        <v>68</v>
+      </c>
+      <c r="M8">
+        <v>68</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.8/stsply.htm")</f>
+        <v>http://192.168.0.8/stsply.htm</v>
+      </c>
+      <c r="E9">
+        <v>75</v>
+      </c>
+      <c r="G9" s="1">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.9/stsply.htm")</f>
+        <v>http://192.168.0.9/stsply.htm</v>
+      </c>
+      <c r="E10" s="1">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>75</v>
+      </c>
+      <c r="I10" s="2">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2">
-        <v>30</v>
-      </c>
-      <c r="I2" s="3">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.10/stsply.htm")</f>
+        <v>http://192.168.0.10/stsply.htm</v>
+      </c>
+      <c r="E11" s="1">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>75</v>
+      </c>
+      <c r="H11">
+        <v>75</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.11/stsply.htm")</f>
+        <v>http://192.168.0.11/stsply.htm</v>
+      </c>
+      <c r="E12" s="2">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12" s="1">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.12/stsply.htm")</f>
+        <v>http://192.168.0.12/stsply.htm</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.13/stsply.htm")</f>
+        <v>http://192.168.0.13/stsply.htm</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.14/stsply.htm")</f>
+        <v>http://192.168.0.14/stsply.htm</v>
+      </c>
+      <c r="E15" s="2">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.15/stsply.htm")</f>
+        <v>http://192.168.0.15/stsply.htm</v>
+      </c>
+      <c r="E16" s="2">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>75</v>
+      </c>
+      <c r="H16">
+        <v>75</v>
+      </c>
+      <c r="I16" s="2">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.16/stsply.htm")</f>
+        <v>http://192.168.0.16/stsply.htm</v>
+      </c>
+      <c r="E17">
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>75</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17" s="1">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.17/stsply.htm")</f>
+        <v>http://192.168.0.17/stsply.htm</v>
+      </c>
+      <c r="E18" s="2">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="L2" s="2">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.18/ews/status/statsupl.htm")</f>
+        <v>http://192.168.0.18/ews/status/statsupl.htm</v>
+      </c>
+      <c r="E19" s="2">
+        <v>50</v>
+      </c>
+      <c r="O19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>89</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2">
-        <v>44</v>
-      </c>
-      <c r="H3" s="1">
-        <v>79</v>
-      </c>
-      <c r="I3" s="2">
-        <v>32</v>
-      </c>
-      <c r="J3" s="1">
-        <v>83</v>
-      </c>
-      <c r="K3" s="3">
-        <v>12</v>
-      </c>
-      <c r="L3" s="3">
-        <v>12</v>
-      </c>
-      <c r="M3" s="3">
-        <v>12</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <v>97</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f>HYPERLINK("http://192.168.0.19/stsply.htm")</f>
+        <v>http://192.168.0.19/stsply.htm</v>
+      </c>
+      <c r="E20" s="2">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
-        <v>27</v>
+      <c r="I20" s="1">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{2AAE9963-016F-48A3-96A3-F1ED49C4623C}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{527C4616-F411-453C-8269-50F5ADE391E2}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{596A350A-7244-4F8E-A6D0-B6D9F8265AC1}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{513C3FEF-3B15-463B-8F78-023DB4248BF3}"/>
-  </hyperlinks>
+  <autoFilter ref="A1:O20" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>